--- a/Spatial/PDFs/plot_Vars_wrt_centers_AD_Data_Percent_PCs.xlsx
+++ b/Spatial/PDFs/plot_Vars_wrt_centers_AD_Data_Percent_PCs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\samsoon.inayat\S_Drive\GitHub\Toolbox_2P\Spatial\PDFs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40B02092-F995-4DB3-8B6B-F24E3F2582D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB48E439-12B8-4330-8B4F-356A46DEB045}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{799C15B4-CFFD-455E-8DD1-77F4E7924071}"/>
   </bookViews>
@@ -529,10 +529,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>63.333333333333336</v>
+        <v>60</v>
       </c>
       <c r="K2">
-        <v>16.666666666666668</v>
+        <v>20</v>
       </c>
       <c r="L2">
         <v>3.3333333333333335</v>
@@ -691,10 +691,10 @@
         <v>53.968253968253968</v>
       </c>
       <c r="K5">
-        <v>31.746031746031747</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="L5">
-        <v>11.111111111111111</v>
+        <v>9.5238095238095237</v>
       </c>
       <c r="M5">
         <v>3.1746031746031744</v>
@@ -759,10 +759,10 @@
         <v>34.782608695652172</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>4.3478260869565215</v>
       </c>
       <c r="Q6">
-        <v>8.695652173913043</v>
+        <v>4.3478260869565215</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -906,10 +906,10 @@
         <v>25.925925925925927</v>
       </c>
       <c r="L9">
-        <v>7.4074074074074074</v>
+        <v>11.111111111111111</v>
       </c>
       <c r="M9">
-        <v>14.814814814814815</v>
+        <v>11.111111111111111</v>
       </c>
       <c r="N9">
         <v>77.777777777777771</v>
@@ -935,10 +935,10 @@
         <v>23.076923076923077</v>
       </c>
       <c r="D10">
+        <v>23.076923076923077</v>
+      </c>
+      <c r="E10">
         <v>11.538461538461538</v>
-      </c>
-      <c r="E10">
-        <v>23.076923076923077</v>
       </c>
       <c r="F10">
         <v>54.545454545454547</v>
@@ -956,10 +956,10 @@
         <v>44.230769230769234</v>
       </c>
       <c r="K10">
-        <v>13.461538461538462</v>
+        <v>15.384615384615385</v>
       </c>
       <c r="L10">
-        <v>26.923076923076923</v>
+        <v>25</v>
       </c>
       <c r="M10">
         <v>15.384615384615385</v>
@@ -994,10 +994,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>11.111111111111111</v>
+        <v>22.222222222222221</v>
       </c>
       <c r="G11">
-        <v>66.666666666666671</v>
+        <v>55.555555555555557</v>
       </c>
       <c r="H11">
         <v>11.111111111111111</v>
